--- a/pred_ohlcv/54_21/2019-10-28 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>110.61478456</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>110.61478456</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-554.8641851500006</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-577.7197851500006</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-467.4536851500005</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-509.1355851500005</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-494.5588851500005</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-493.6941851500005</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-505.5293851500005</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-568.7212851500005</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-574.6834851500006</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-580.1243851500006</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-577.9112851500006</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-546.8316851500006</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-562.3797851500005</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-499.6666851500005</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-499.7356851500006</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-492.1509851500006</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-506.2405851500006</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-495.7200851500006</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-477.0613851500005</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-566.5299851500006</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-583.4555851500006</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-592.0135851500006</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-592.0135851500006</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-628.3565851500006</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-541.1714851500005</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-544.4933851500006</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-535.7548851500005</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-492.0736851500005</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-492.0736851500005</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-489.8369851500005</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-489.8369851500005</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-474.9548851500006</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>122.2171148499993</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>146.0252148499993</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>151.3868148499994</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>151.8952148499993</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>442.9865148499994</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>443.3894148499994</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>463.9284148499994</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>471.6928148499994</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>471.4395795899994</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>529.1049795899994</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>527.2749795899994</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>524.9788795899993</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>465.3283795899994</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>477.0288795899994</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>452.2280795899994</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>252.9899795899994</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1881.102913149999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1960.70521315</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1747.542513149999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1658.415713149999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1726.004413149999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1616.937413149999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1629.302313149999</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1606.22961315</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1615.01011315</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1565.01011315</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1565.813113149999</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1456.177513149999</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1551.486513149999</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1512.997913149999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1512.163813149999</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1505.88531315</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1501.414613149999</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1492.536313149999</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1523.494913149999</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1384.665313149999</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1244.725513149999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1242.678313149999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1048.892913149999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-921.0328655600017</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-969.1386655600016</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-982.6276655600017</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-913.2017655600017</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-912.3556655600017</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-915.0937745100017</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-915.7693745100017</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-912.6378745100018</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-912.6833612300018</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-902.6215612300018</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-920.8225612300018</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-914.2241612300019</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-921.0401612300019</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-919.6392612300019</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-926.608261230002</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1003.890561230002</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-995.387161230002</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 LTC ohlcv.xlsx
@@ -3018,7 +3018,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-467.4536851500005</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-509.1355851500005</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-494.5588851500005</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-493.6941851500005</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-501.2377851500004</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-501.4377851500004</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-579.4665851500005</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-572.6295851500005</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-570.5742851500005</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-568.7212851500005</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-574.6834851500006</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-580.1243851500006</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-577.9112851500006</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-546.8316851500006</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-562.3797851500005</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-499.6666851500005</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-499.7356851500006</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-492.1509851500006</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-506.2405851500006</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-495.7200851500006</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-477.0613851500005</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>122.2171148499993</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>146.0252148499993</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>151.3868148499994</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>151.8952148499993</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>442.9865148499994</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>443.3894148499994</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>463.9284148499994</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>471.6928148499994</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>471.4395795899994</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>529.1049795899994</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>527.2749795899994</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>524.9788795899993</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>465.3283795899994</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>477.0288795899994</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>452.2280795899994</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>252.9899795899994</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1274.597831</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1299.38610179</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2057.309730999999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1881.102913149999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1960.70521315</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1747.542513149999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1658.415713149999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1726.004413149999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1616.937413149999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1629.302313149999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1606.22961315</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1615.01011315</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1565.01011315</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1565.813113149999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1456.177513149999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1551.486513149999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1512.997913149999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1512.163813149999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1505.88531315</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1501.414613149999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1492.536313149999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1523.494913149999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1384.665313149999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1244.725513149999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1242.678313149999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-921.0328655600017</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-969.1386655600016</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-982.6276655600017</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-913.2017655600017</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-912.3556655600017</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-915.0937745100017</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-915.7693745100017</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-912.6378745100018</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-912.6833612300018</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-902.6215612300018</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-920.8225612300018</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-914.2241612300019</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-921.0401612300019</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-919.6392612300019</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-926.608261230002</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-1003.890561230002</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-995.387161230002</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
